--- a/presidential_variables.xlsx
+++ b/presidential_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C82BF44-5919-3144-ABDA-64E8D4CF72B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1A00B-D520-4C42-A4EA-8BB602FC3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25560" windowHeight="16940" xr2:uid="{9BBDAC0D-605F-044F-B4B8-9B0BCCA08835}"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="25560" windowHeight="16940" xr2:uid="{9BBDAC0D-605F-044F-B4B8-9B0BCCA08835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Born</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>George Washington</t>
   </si>
@@ -60,9 +48,6 @@
     <t>12/14/1799</t>
   </si>
   <si>
-    <t>John Adams</t>
-  </si>
-  <si>
     <t>1797–1801</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>07/4/1831</t>
   </si>
   <si>
-    <t>John Quincy Adams</t>
-  </si>
-  <si>
     <t>1825–1829</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t>06/8/1845</t>
   </si>
   <si>
-    <t>Martin Van Buren</t>
-  </si>
-  <si>
     <t>1837–1841</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>04/15/1865</t>
   </si>
   <si>
-    <t>Andrew Johnson</t>
-  </si>
-  <si>
     <t>1865–1869</t>
   </si>
   <si>
@@ -306,9 +282,6 @@
     <t>3/18/1837</t>
   </si>
   <si>
-    <t>Benjamin Harrison</t>
-  </si>
-  <si>
     <t>1889–1893</t>
   </si>
   <si>
@@ -336,9 +309,6 @@
     <t>10/27/1858</t>
   </si>
   <si>
-    <t>William Taft</t>
-  </si>
-  <si>
     <t>1909–1913</t>
   </si>
   <si>
@@ -381,27 +351,18 @@
     <t>8/10/1874</t>
   </si>
   <si>
-    <t>Franklin Roosevelt</t>
-  </si>
-  <si>
     <t>1933–1945</t>
   </si>
   <si>
     <t>1/30/1882</t>
   </si>
   <si>
-    <t>Harry Truman</t>
-  </si>
-  <si>
     <t>1945–1953</t>
   </si>
   <si>
     <t>5/8/1884</t>
   </si>
   <si>
-    <t>Dwight Eisenhower</t>
-  </si>
-  <si>
     <t>1953–1961</t>
   </si>
   <si>
@@ -414,9 +375,6 @@
     <t>1961–1963</t>
   </si>
   <si>
-    <t>Lyndon Johnson</t>
-  </si>
-  <si>
     <t>1963–1969</t>
   </si>
   <si>
@@ -426,9 +384,6 @@
     <t>1969–1974</t>
   </si>
   <si>
-    <t>Gerald Ford</t>
-  </si>
-  <si>
     <t>1974–1977</t>
   </si>
   <si>
@@ -450,42 +405,18 @@
     <t>1989–1993</t>
   </si>
   <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
     <t>1993– 2001</t>
   </si>
   <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
     <t>2001–2009</t>
   </si>
   <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
     <t>2009-2017</t>
   </si>
   <si>
-    <t> 8/4/61</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
     <t>2017-2021</t>
   </si>
   <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>Age at inaug.</t>
-  </si>
-  <si>
-    <t>Age at death</t>
-  </si>
-  <si>
     <t>no.</t>
   </si>
   <si>
@@ -513,9 +444,6 @@
     <t>Democratic-Republican</t>
   </si>
   <si>
-    <t>National Republican</t>
-  </si>
-  <si>
     <t>Whig</t>
   </si>
   <si>
@@ -531,14 +459,83 @@
     <t>Post-FDR Republican</t>
   </si>
   <si>
-    <t>Party</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>age_inaug</t>
+  </si>
+  <si>
+    <t>age_death</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>John Adams</t>
+  </si>
+  <si>
+    <t>John Quincy Adams</t>
+  </si>
+  <si>
+    <t>Martin van Buren</t>
+  </si>
+  <si>
+    <t>Andrew Johnson</t>
+  </si>
+  <si>
+    <t>Grover Cleveland (2nd term)</t>
+  </si>
+  <si>
+    <t>Benjamin Harrison</t>
+  </si>
+  <si>
+    <t>William H. Taft</t>
+  </si>
+  <si>
+    <t>Franklin D. Roosevelt</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>Dwight D. Eisenhower</t>
+  </si>
+  <si>
+    <t>Lyndon B. Johnson</t>
+  </si>
+  <si>
+    <t>Gerald R. Ford</t>
+  </si>
+  <si>
+    <t>William J. Clinton</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barack Obama </t>
+  </si>
+  <si>
+    <t>Donald J. Trump</t>
+  </si>
+  <si>
+    <t>Joseph R. Biden</t>
+  </si>
+  <si>
+    <t> 8/4/1961</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,11 +557,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF1A1A1A"/>
@@ -576,6 +568,14 @@
       <color rgb="FF1A1A1A"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,19 +595,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3777,49 +3779,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6935F-6EE4-0243-B286-E086FAFCC3E7}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>57</v>
@@ -3828,21 +3833,21 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>61</v>
@@ -3851,21 +3856,21 @@
         <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>57</v>
@@ -3874,21 +3879,21 @@
         <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>57</v>
@@ -3897,21 +3902,21 @@
         <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>58</v>
@@ -3920,21 +3925,21 @@
         <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>57</v>
@@ -3943,21 +3948,21 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>61</v>
@@ -3966,21 +3971,21 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>54</v>
@@ -3989,21 +3994,21 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>68</v>
@@ -4012,21 +4017,21 @@
         <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>51</v>
@@ -4035,21 +4040,21 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>49</v>
@@ -4058,21 +4063,21 @@
         <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>64</v>
@@ -4081,21 +4086,21 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -4104,21 +4109,21 @@
         <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>48</v>
@@ -4127,21 +4132,21 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1">
         <v>65</v>
@@ -4150,21 +4155,21 @@
         <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1">
         <v>52</v>
@@ -4173,21 +4178,21 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1">
         <v>56</v>
@@ -4196,21 +4201,21 @@
         <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1">
         <v>46</v>
@@ -4219,21 +4224,21 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1">
         <v>54</v>
@@ -4242,21 +4247,21 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1">
         <v>49</v>
@@ -4265,21 +4270,21 @@
         <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -4288,18 +4293,18 @@
         <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2">
         <v>3098</v>
@@ -4311,18 +4316,23 @@
         <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2">
         <v>438</v>
@@ -4334,18 +4344,23 @@
         <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2">
         <v>3098</v>
@@ -4357,18 +4372,23 @@
         <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2">
         <v>623</v>
@@ -4380,18 +4400,23 @@
         <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2">
         <v>6946</v>
@@ -4403,18 +4428,23 @@
         <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2">
         <v>11025</v>
@@ -4426,18 +4456,23 @@
         <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2">
         <v>8800</v>
@@ -4449,18 +4484,23 @@
         <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2">
         <v>8615</v>
@@ -4472,18 +4512,23 @@
         <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2">
         <v>12059</v>
@@ -4495,18 +4540,23 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18">
+        <v>138</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2">
         <v>23670</v>
@@ -4518,18 +4568,23 @@
         <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18">
-      <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2">
         <v>16539</v>
@@ -4541,18 +4596,23 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18">
-      <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2">
         <v>26659</v>
@@ -4564,18 +4624,23 @@
         <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18">
-      <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2">
         <v>25290</v>
@@ -4587,15 +4652,20 @@
         <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18">
+        <v>140</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2">
         <v>6359</v>
@@ -4610,15 +4680,20 @@
         <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>157</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2">
         <v>3162</v>
@@ -4633,15 +4708,20 @@
         <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18">
+        <v>139</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2">
         <v>4758</v>
@@ -4656,15 +4736,20 @@
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18">
-      <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>158</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2">
         <v>4944</v>
@@ -4679,15 +4764,20 @@
         <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18">
+        <v>140</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2">
         <v>9041</v>
@@ -4698,15 +4788,20 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18">
+        <v>139</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C41" s="2">
         <v>4055</v>
@@ -4721,15 +4816,20 @@
         <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18">
+        <v>140</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2">
         <v>8930</v>
@@ -4744,15 +4844,20 @@
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>159</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2">
         <v>17033</v>
@@ -4763,15 +4868,20 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>160</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2">
         <v>16989</v>
@@ -4782,18 +4892,23 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -4801,15 +4916,20 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2">
         <v>16967</v>
@@ -4820,12 +4940,17 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>163</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
@@ -4839,8 +4964,13 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" t="s">
-        <v>163</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4855,308 +4985,308 @@
       <selection activeCell="C4" sqref="C4:F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20">
-      <c r="A1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20">
-      <c r="A2" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20">
-      <c r="A3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
+    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6">
+    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
+    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6">
+    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5">
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5">
+    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5">
+    <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5">
+    <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5">
+    <row r="38" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5">
+    <row r="39" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5">
+    <row r="40" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5">
+    <row r="41" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5">
+    <row r="42" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5">
+    <row r="43" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5">
+    <row r="44" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5">
+    <row r="45" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5">
+    <row r="46" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5">
+    <row r="47" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5">
+    <row r="48" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5">
+    <row r="49" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
         <v>46</v>
       </c>
     </row>

--- a/presidential_variables.xlsx
+++ b/presidential_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1A00B-D520-4C42-A4EA-8BB602FC3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA51E846-BD53-544F-98CB-08209011E068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="25560" windowHeight="16940" xr2:uid="{9BBDAC0D-605F-044F-B4B8-9B0BCCA08835}"/>
+    <workbookView xWindow="-3720" yWindow="-20660" windowWidth="25560" windowHeight="16940" xr2:uid="{9BBDAC0D-605F-044F-B4B8-9B0BCCA08835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>age_death</t>
   </si>
   <si>
-    <t>party</t>
-  </si>
-  <si>
     <t>John Adams</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
   </si>
   <si>
     <t> 8/4/1961</t>
+  </si>
+  <si>
+    <t>pres_party</t>
   </si>
 </sst>
 </file>
@@ -3782,7 +3782,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3810,7 +3810,7 @@
         <v>145</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -3971,12 +3971,12 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>82</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>84</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>91</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>105</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>107</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>109</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>113</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>116</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>123</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>124</v>
@@ -4902,13 +4902,13 @@
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -4926,7 +4926,7 @@
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>126</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1">
         <v>2021</v>
